--- a/pred_ohlcv/54_21/2019-10-09 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-09 PPT ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>80996.74828188999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>79352.07018188998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>79332.17548188998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>79397.52638188998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>80310.94138188998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>81719.67293395998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>84459.05293395999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>83979.38793396</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>84957.32438275</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>84263.55448275</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>83131.81028275</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>83141.81028275</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>84587.45488275</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>84585.45488275</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>84579.45488275</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>80547.19818275</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>80547.34818274999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>75812.87144014999</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>76799.89954014999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>75910.25444014998</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>75908.25444014998</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>75906.25444014998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>75906.05444014998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>75969.41404014998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>75969.41404014998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>75828.50854014998</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>75686.35684014998</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>75684.35684014998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>77940.44144014998</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>78297.45234014998</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>78298.45234014998</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>78295.45984014998</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>79551.94574014998</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>79556.94574014998</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>76628.37354014999</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>76348.37354014999</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>76256.31554014998</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>76256.31554014998</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>76315.15034014998</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>76344.15034014998</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>76473.96434014998</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>76453.96434014998</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>76395.12494014998</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>76320.12494014998</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>76360.92494014998</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>76360.92494014998</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>75660.92494014998</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>76216.22494014999</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>75906.45264014999</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>75648.09414014999</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>75648.09414014999</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>74720.34354015</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>74745.25694015001</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>74745.25694015001</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>74745.25694015001</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>74745.35694015001</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>75025.16174015001</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>75025.26174015002</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>75025.16174015001</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>74846.29424015002</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>75180.26724015002</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>75170.27974015001</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>75209.77974015001</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>75394.44372232001</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>75394.44372232001</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>76521.53402232</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>77397.70922232</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>78265.21382232</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>77530.00682232001</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>81143.88412232001</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>84472.01962232002</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>84341.33545944002</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>84068.19039900003</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>82504.89169900003</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>82504.89169900003</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>83675.82039900003</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>84877.54159900003</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>81729.36109900003</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>74035.08939900003</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>73825.68779900004</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>80008.47549900004</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>85040.18309900005</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>84770.39419900005</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>81600.15519900007</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>79814.72299900008</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>81210.33469900007</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>98696.29646619011</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>102326.8052661901</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>101674.4645661901</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>103647.2258661901</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>103439.2251923601</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>100465.4251923601</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>97483.1701155701</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>97501.4452155701</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>97396.4165155701</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>97396.4165155701</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>97508.4165155701</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>97508.4165155701</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>96896.3178155701</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>96677.2467155701</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>98838.7454155701</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>98838.7454155701</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>98771.5326155701</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>98780.28701557011</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>99038.62921557011</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>99189.78641557011</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>99658.2866155701</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>99657.0089155701</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>99671.3037155701</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>99327.2366155701</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>99327.2366155701</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>97163.8010155701</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>96903.45241557011</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>96902.45241557011</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>96902.55241557011</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>96902.55241557011</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>97942.04331557012</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>99824.70531557011</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>99819.67051557012</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>99820.63811557012</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>99673.23971557012</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>99322.56971557012</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>97287.64671557012</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>96336.81501557013</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>101146.1746155701</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>101146.2746155701</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>101417.4992155701</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>101147.5829155701</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>102501.0337155701</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>103370.9329155701</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>104269.2498155701</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>104176.2282155702</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>102831.5489155702</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>102898.2664155701</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>103622.8864609001</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>103727.4322609002</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>103727.5322609002</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>103725.5322609002</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>103732.0409609002</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>103879.9409609002</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>103890.3695609002</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>103679.2250609002</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>103477.2250609002</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>103455.1250609002</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>103455.2250609002</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>103014.4719609002</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>100419.8498235602</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>100427.4473235602</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>100427.4473235602</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>100424.2517235602</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>100424.2517235602</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>99728.68162356016</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>96281.43202356016</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>100855.7942235602</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>100857.7942235602</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>100855.7942235602</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>100857.8942235602</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>100666.6908235602</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>100714.2450235602</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>100929.0136235602</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>100483.1328235602</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>100908.2913235602</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>100907.5524235602</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>101094.8539716502</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>101104.2913716502</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>101103.2913716502</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>101102.2913716502</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>101102.2913716502</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>100802.2913716502</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>100502.2913716502</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>100505.2482716502</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>101880.4323744102</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>101876.5020744102</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>101873.6957744102</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>100466.7207744102</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>100465.1910744102</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>100465.1910744102</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>103604.3128744102</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>103988.3193744102</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>103287.7361744102</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>103187.8026744102</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>103187.7026744102</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>104875.6057139802</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>104988.7117139802</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>106384.5076139802</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>105716.9570139802</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>105717.9491139802</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>105717.8491139802</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>105722.8134139802</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>105658.6140139802</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>105202.6059139802</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>104984.2610139802</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>104450.8898139802</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>104526.6421139802</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>104497.8421139802</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>104497.8421139802</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>104616.9536139802</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>104887.5002139802</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>104900.1656139802</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>103985.2079139802</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>104005.2079139802</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>105088.7503139802</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>105161.9857139802</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>105161.9857139802</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>105128.3857139802</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>105128.3857139802</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>106304.0510139802</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>106295.5170139802</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>106295.5170139802</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>106288.4986139802</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>106288.4986139802</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>106288.4986139802</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>106026.8416139802</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>104651.2915139802</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>104581.2915139802</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>104581.2915139802</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>104851.9661139802</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>104851.8661139802</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>104851.8661139802</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>104863.0892139802</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>105053.9190139802</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>105057.5326139802</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>105026.1326139802</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>104865.7028139802</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>103962.3602139802</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>103963.3484139802</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>103720.5522139802</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>103720.5522139802</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>102324.7563139802</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>99093.84036171022</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>99086.09626171022</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>99085.09626171022</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>99084.99626171021</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>92020.48236171022</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>93543.35366171022</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>98296.29288986023</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>95470.65348986023</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>94427.00798986023</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>95209.21438986022</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>97164.42878986021</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>97854.88098986019</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>97736.73998986019</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>97629.88198986019</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>97629.88198986019</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>97535.34018986019</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>97548.43268986019</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>97681.08838986019</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>98199.33218986019</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>98451.68938986018</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>98952.58578986018</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>98618.01168986018</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>98016.48158986018</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>97889.58508986018</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>97437.37148986018</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>97438.37148986018</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>97432.55448986018</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>96928.66068986017</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>96868.03078986017</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>96868.03078986017</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>96788.60928986018</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>96794.60928986018</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>96794.60928986018</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>96795.60928986018</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>96796.60928986018</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>96796.60928986018</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>96378.38938986018</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>96378.38938986018</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>96378.38938986018</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>96325.27718986018</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>96330.81298986018</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>96330.81298986018</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>96403.18578986017</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>96601.41388986017</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>96601.41388986017</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>96737.61388986016</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>98095.82918986016</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>98688.51418986016</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>99094.61858986015</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>99098.99768986016</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>101200.5564898602</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>101894.3673898602</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>104183.1229804202</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>104057.2048804202</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>104152.7950804202</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>104447.8853804202</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>104448.8853804202</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>104271.7853804202</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>108054.0534804202</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>107635.9658804202</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>107444.8607804202</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>107605.4819804202</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>107208.1582804202</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>106610.0575804202</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>107302.3067804202</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>106016.8635804202</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>106169.9208804202</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>108865.8579804202</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>108865.8579804202</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>108651.7095804202</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>104153.9106804202</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>107056.2599804202</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>100418.3740870702</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>100433.9543870702</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>100433.7543870702</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>100433.6543870702</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>100433.5543870702</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>99878.87650967023</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>100988.8473096702</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-09 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-09 PPT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>76243.42478538999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -756,7 +756,7 @@
         <v>88594.64038538998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>88964.27938538998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>89615.06808538998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>88529.87328538999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>88529.87328538999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>87789.98708538999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>87814.73468538999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>87693.92228539</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>88020.88828539</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>80996.98798188999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>80996.74828188999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>79352.07018188998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>79332.17548188998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>79397.52638188998</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>80310.94138188998</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>81719.67293395998</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>84459.05293395999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>83979.38793396</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>84957.32438275</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>83131.81028275</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>83141.81028275</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>84587.45488275</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>75812.87144014999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>75906.25444014998</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>75906.05444014998</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>75969.41404014998</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>75828.50854014998</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>77940.44144014998</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>78298.45234014998</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>78228.45234014998</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>78231.45234014998</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>78297.45234014998</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>78298.45234014998</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>78295.45984014998</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>79551.94574014998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>79556.94574014998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>78685.15414014999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>76256.31554014998</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>76315.15034014998</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>76344.15034014998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>76473.96434014998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>76453.96434014998</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>76395.12494014998</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>76320.12494014998</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>76360.92494014998</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>76360.92494014998</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>75660.92494014998</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>76216.22494014999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>75906.45264014999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>75648.09414014999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>75648.09414014999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>74720.34354015</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>74745.25694015001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>74745.25694015001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>74745.25694015001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>74745.35694015001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>75025.16174015001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>75025.26174015002</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>75025.16174015001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>74846.29424015002</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>75180.26724015002</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>75170.27974015001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>75209.77974015001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>75394.44372232001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>75394.44372232001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>76102.44062232001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>76521.53402232</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>77397.70922232</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>78265.21382232</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>77530.00682232001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>84472.01962232002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>84341.33545944002</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>84068.19039900003</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>82504.89169900003</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>82504.89169900003</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>83675.82039900003</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>84877.54159900003</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>81729.36109900003</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>74035.08939900003</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>73825.68779900004</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>80008.47549900004</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>85173.07449900004</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>85040.18309900005</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>84770.39419900005</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>83521.82569900005</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>83554.07149900006</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>83554.07149900006</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>83294.59859900006</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>83843.88549900007</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>84212.70729900007</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>84212.58949900007</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>81600.15519900007</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>96314.11026619011</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>96610.60716619011</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>98696.29646619011</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>102326.8052661901</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>101674.4645661901</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>103647.2258661901</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>103439.2251923601</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>100465.4251923601</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>97483.1701155701</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>97501.4452155701</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>97396.4165155701</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>97396.4165155701</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>97508.4165155701</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>97508.4165155701</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>96896.3178155701</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>96677.2467155701</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>98838.7454155701</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>98838.7454155701</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>98771.5326155701</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>98780.28701557011</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>99038.62921557011</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>99189.78641557011</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>99658.2866155701</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>99657.0089155701</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>99671.3037155701</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>99327.2366155701</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>99327.2366155701</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>97163.8010155701</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>96903.45241557011</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>96902.45241557011</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>96902.55241557011</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>96902.55241557011</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>97942.04331557012</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>99824.70531557011</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>99819.67051557012</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>99820.63811557012</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>99673.23971557012</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>99322.56971557012</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>97287.64671557012</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>96336.81501557013</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>101417.4992155701</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>101147.5829155701</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>104269.2498155701</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>104176.2282155702</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>102831.5489155702</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>102898.2664155701</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>103727.4322609002</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>103727.5322609002</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>103725.5322609002</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>103732.0409609002</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>103879.9409609002</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>103890.3695609002</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>103679.2250609002</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>103477.2250609002</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>103014.4719609002</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>98296.29288986023</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>97854.88098986019</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>97736.73998986019</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>97629.88198986019</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>97629.88198986019</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>97535.34018986019</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>97548.43268986019</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>97555.43268986019</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>98199.33218986019</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>98451.68938986018</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>98952.58578986018</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>98618.01168986018</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>98016.48158986018</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>97889.58508986018</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>97437.37148986018</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>97438.37148986018</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>97432.55448986018</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>96928.66068986017</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>96868.03078986017</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>96868.03078986017</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>96788.60928986018</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>96794.60928986018</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>96794.60928986018</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>96795.60928986018</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>96796.60928986018</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>96378.38938986018</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>96601.41388986017</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>96601.41388986017</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>104183.1229804202</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>104057.2048804202</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>104152.7950804202</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>104447.8853804202</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>104448.8853804202</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>104271.7853804202</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>108054.0534804202</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>107635.9658804202</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>100418.3740870702</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>100433.9543870702</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>100433.7543870702</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>100433.6543870702</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>100433.5543870702</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>99878.87650967023</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>100988.8473096702</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
